--- a/bank statement generator/bank_statements/statement_19.xlsx
+++ b/bank statement generator/bank_statements/statement_19.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 21.04.2025</t>
+          <t>KONTOSTAND AM 06.08.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,110 +759,110 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>24.04.</t>
+          <t>10.08.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>25.04.</t>
+          <t>11.08.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 8259975</t>
+          <t>BURGER KING Hofgeismar</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>84,12-</t>
+          <t>40,03-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>25.04.</t>
+          <t>14.08.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>26.04.</t>
+          <t>15.08.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>MCDONALDS Viersen</t>
+          <t>KARTENZ./14.08 EDEKA RO</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>35,72-</t>
+          <t>109,05-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>29.04.</t>
+          <t>15.08.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>30.04.</t>
+          <t>16.08.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>RECHNUNG VODAFONE GMBH 45470027</t>
+          <t>PAYPAL TCZFMB</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>39,31-</t>
+          <t>52,10-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>02.05.</t>
+          <t>19.08.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>03.05.</t>
+          <t>20.08.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+          <t>RECHNUNG VODAFONE GMBH 52028385</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>24,40-</t>
+          <t>41,70-</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="8" t="inlineStr">
         <is>
-          <t>05.05.</t>
+          <t>22.08.</t>
         </is>
       </c>
       <c r="C10" s="8" t="inlineStr">
         <is>
-          <t>06.05.</t>
+          <t>23.08.</t>
         </is>
       </c>
       <c r="D10" s="8" t="inlineStr">
         <is>
-          <t>PAYPAL IYXRCE</t>
+          <t>BEITRAG Allianz SE K-14588052</t>
         </is>
       </c>
       <c r="E10" s="17" t="inlineStr">
         <is>
-          <t>46,74-</t>
+          <t>57,24-</t>
         </is>
       </c>
     </row>
@@ -877,12 +877,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 07.05.2025</t>
+          <t>KONTOSTAND AM 25.08.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>230,29-</t>
+          <t>300,12-</t>
         </is>
       </c>
     </row>
@@ -890,7 +890,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 13.05.2025</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 31.08.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
